--- a/biology/Botanique/Begonia_mazae/Begonia_mazae.xlsx
+++ b/biology/Botanique/Begonia_mazae/Begonia_mazae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia mazae est une espèce de plantes de la famille des Begoniaceae. Ce bégonia rhizomateux est originaire du Mexique. Il est cultivé pour son attrait ornemental.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un bégonia vivace rhizomateux.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire Mexique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire Mexique.
 </t>
         </is>
       </c>
@@ -573,20 +589,16 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia mazae fait partie de la section Gireoudia du genre Begonia, famille des Begoniaceae[3].
-En classification phylogénétique APG IV (2016)[4], comme classification phylogénétique APG III (2009)[5], celle-ci est classée dans l'ordre des Cucurbitales, alors que dans la classification classique de Cronquist (1981)[6] les Begoniaceae font partie de l'ordre des Violales.
-Le type nomenclatural a été récolté en 1946 par MacDougall et Thomas Baillie, dans la forêt humide de Ocozocoautla, au Rancho Aguajito, Pico Carrizal, Chiapas, au Mexique[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia mazae fait partie de la section Gireoudia du genre Begonia, famille des Begoniaceae.
+En classification phylogénétique APG IV (2016), comme classification phylogénétique APG III (2009), celle-ci est classée dans l'ordre des Cucurbitales, alors que dans la classification classique de Cronquist (1981) les Begoniaceae font partie de l'ordre des Violales.
+Le type nomenclatural a été récolté en 1946 par MacDougall et Thomas Baillie, dans la forêt humide de Ocozocoautla, au Rancho Aguajito, Pico Carrizal, Chiapas, au Mexique.
 L'espèce a été décrite en 1947 par le botaniste amateur américain Rudolf Christian Ziesenhenne (1911-2005).
-L'épithète spécifique mazae signifie « de Maza », en hommage à Don Lisandro Maza, le propriétaire du ranch Aguajito, qui cultivait des spécimens de cette plante dans les jardinières autour de sa demeure[8].
-Publication originale : Begonian 14(12): 242. 1947[9].
-Liste des variétés
-Selon Tropicos                                           (20 février 2017)[10] (Attention liste brute contenant possiblement des synonymes) :
-variété Begonia mazae var. deminuta Ziesenh.
-variété Begonia mazae var. mazae
-On distingue aussi parfois une forme au feuillage plus sombre : Begonia mazae f. nigricans Ziesenh.
-Ces formes ou variétés sont plus probablement des synonymes pour de simples nuances du feuillage chez cette espèce[11].
+L'épithète spécifique mazae signifie « de Maza », en hommage à Don Lisandro Maza, le propriétaire du ranch Aguajito, qui cultivait des spécimens de cette plante dans les jardinières autour de sa demeure.
+Publication originale : Begonian 14(12): 242. 1947.
 </t>
         </is>
       </c>
@@ -612,13 +624,56 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (20 février 2017) (Attention liste brute contenant possiblement des synonymes) :
+variété Begonia mazae var. deminuta Ziesenh.
+variété Begonia mazae var. mazae
+On distingue aussi parfois une forme au feuillage plus sombre : Begonia mazae f. nigricans Ziesenh.
+Ces formes ou variétés sont plus probablement des synonymes pour de simples nuances du feuillage chez cette espèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Begonia_mazae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Begonia_mazae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Horticulture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce bégonia vivace rhizomateux à feuillage décoratif, et qui fleurit abondamment, est assez facile à cultiver. En plus des variétés et formes naturelles, les horticulteurs ont sélectionné de nombreux cultivars au feuillage diversement coloré[8].
-La plante se reproduit aussi bien par graines que par multiplication végétative (division de pieds, bouturage de feuilles ou de rhizomes...)[8].      
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce bégonia vivace rhizomateux à feuillage décoratif, et qui fleurit abondamment, est assez facile à cultiver. En plus des variétés et formes naturelles, les horticulteurs ont sélectionné de nombreux cultivars au feuillage diversement coloré.
+La plante se reproduit aussi bien par graines que par multiplication végétative (division de pieds, bouturage de feuilles ou de rhizomes...).      
 </t>
         </is>
       </c>
